--- a/staff_data_PU1.xlsx
+++ b/staff_data_PU1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Campus_technology\backend-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FDFC8B-4034-48AB-B44A-EA53CB2622A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A07AFF7-EB7F-4857-9000-12CF7BD43AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="98">
   <si>
     <t>email</t>
   </si>
@@ -262,13 +262,82 @@
   </si>
   <si>
     <t>Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharmaceutics </t>
+  </si>
+  <si>
+    <t>SOPR</t>
+  </si>
+  <si>
+    <t>Laboratory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assisatant Professor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab Technician </t>
+  </si>
+  <si>
+    <t>adminsopr@pu.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mr Hargovind Puri </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mr Gaya Prashad Raghuwanshi </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mr Santlal Sahu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mr Suresh Chandra Shukla </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mr Sunil Mishra </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mr Sadarmal Sahu </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mr Rajendra Rahul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mr Shiv Sahay Dubey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrs Rajkumari Puri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrs Durga Raghuwanshi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrs Savitri Sahu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrs Suman Shukla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrs Anjula Mishra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrs Urmila Sahu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrs Sunita Rahul </t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +368,27 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -335,11 +425,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -356,10 +449,21 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{50D93FCD-D06A-4B16-AF77-8A3C6714823D}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{1F328463-1748-449F-9FC3-B1DEE8FADF42}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{5BA35E6D-1ACE-453A-AA95-82CF8D7030A4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -637,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL9"/>
+  <dimension ref="A1:AL11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -650,6 +754,15 @@
     <col min="3" max="3" width="26.6640625" customWidth="1"/>
     <col min="4" max="4" width="25.73046875" customWidth="1"/>
     <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="28.6640625" customWidth="1"/>
+    <col min="18" max="18" width="32.1328125" customWidth="1"/>
+    <col min="19" max="19" width="14.3984375" customWidth="1"/>
+    <col min="20" max="20" width="13.9296875" customWidth="1"/>
+    <col min="33" max="33" width="13.59765625" customWidth="1"/>
+    <col min="34" max="34" width="16.3984375" customWidth="1"/>
+    <col min="35" max="35" width="17.6640625" customWidth="1"/>
+    <col min="37" max="37" width="21.53125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.45">
@@ -768,7 +881,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
@@ -802,8 +915,35 @@
       <c r="K2" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="L2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S2" s="8">
+        <v>35489</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>34059</v>
+      </c>
+      <c r="AH2" s="8">
+        <v>45943</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ2" s="10">
+        <v>4000</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
@@ -837,8 +977,35 @@
       <c r="K3" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="L3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S3" s="8">
+        <v>32070</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>34060</v>
+      </c>
+      <c r="AH3" s="8">
+        <v>45946</v>
+      </c>
+      <c r="AI3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ3" s="10">
+        <v>4000</v>
+      </c>
+      <c r="AK3" s="11" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>41</v>
       </c>
@@ -872,8 +1039,35 @@
       <c r="K4" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="L4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="S4" s="8">
+        <v>36780</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>34061</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>45958</v>
+      </c>
+      <c r="AI4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ4" s="10">
+        <v>4000</v>
+      </c>
+      <c r="AK4" s="11" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
@@ -907,8 +1101,35 @@
       <c r="K5" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="L5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="S5" s="8">
+        <v>37807</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>34063</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>45958</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ5" s="10">
+        <v>4000</v>
+      </c>
+      <c r="AK5" s="11" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -942,8 +1163,35 @@
       <c r="K6" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="L6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S6" s="8">
+        <v>37258</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>34062</v>
+      </c>
+      <c r="AH6" s="8">
+        <v>45958</v>
+      </c>
+      <c r="AI6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ6" s="10">
+        <v>4000</v>
+      </c>
+      <c r="AK6" s="11" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -977,8 +1225,35 @@
       <c r="K7" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="L7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S7" s="8">
+        <v>35711</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>34065</v>
+      </c>
+      <c r="AH7" s="8">
+        <v>45959</v>
+      </c>
+      <c r="AI7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ7" s="10">
+        <v>4000</v>
+      </c>
+      <c r="AK7" s="11" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -1012,8 +1287,35 @@
       <c r="K8" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="L8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S8" s="8">
+        <v>36328</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>34067</v>
+      </c>
+      <c r="AH8" s="8">
+        <v>45958</v>
+      </c>
+      <c r="AI8" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ8" s="10">
+        <v>4000</v>
+      </c>
+      <c r="AK8" s="11" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
@@ -1047,6 +1349,39 @@
       <c r="K9" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="L9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S9" s="8">
+        <v>28166</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>34068</v>
+      </c>
+      <c r="AH9" s="8">
+        <v>45959</v>
+      </c>
+      <c r="AI9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ9" s="10">
+        <v>4000</v>
+      </c>
+      <c r="AK9" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="S10" s="8"/>
+    </row>
+    <row r="11" spans="1:38" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="S11" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
